--- a/EtapesProjet.xlsx
+++ b/EtapesProjet.xlsx
@@ -179,7 +179,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -340,174 +340,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -820,7 +652,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -971,7 +803,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1249,44 +1081,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"En cours"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"A Faire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"fait"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"'Fait'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"En cours"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"A Faire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"fait"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"'Fait'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"En cours"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"A Faire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"fait"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"'Fait'"</formula>
     </cfRule>
   </conditionalFormatting>
